--- a/data/trans_dic/P70A_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.1986202902859873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2431070931025989</v>
+        <v>0.2431070931025988</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1620642964168817</v>
+        <v>0.1691507211830844</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1212753972404397</v>
+        <v>0.1198378069889375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1637682548791423</v>
+        <v>0.164300235322235</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4297667882184304</v>
+        <v>0.4372956743160532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3055663792172317</v>
+        <v>0.2966597626706159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3251807715771032</v>
+        <v>0.3308063017784638</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2623560697554261</v>
+        <v>0.2623560697554262</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2297226132157664</v>
+        <v>0.2297226132157663</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2474567176254023</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1502587206950966</v>
+        <v>0.1473055046860789</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1431443504857443</v>
+        <v>0.1327035303263965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1677098292809134</v>
+        <v>0.1746417591587468</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3885213984228625</v>
+        <v>0.3890522033811958</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3275991787671583</v>
+        <v>0.3362742147561503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3251622353476831</v>
+        <v>0.3300209872009847</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.2713969669893055</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3718886455777503</v>
+        <v>0.3718886455777502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3156458226055848</v>
+        <v>0.3156458226055849</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1315803588950847</v>
+        <v>0.1516295415756655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2167396366749889</v>
+        <v>0.2127083491919198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2218120601897222</v>
+        <v>0.2181903123897329</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4207573863427938</v>
+        <v>0.4419555472050929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5472640184832875</v>
+        <v>0.5494406299708744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4614981190655356</v>
+        <v>0.4327515631818755</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08656046143999338</v>
+        <v>0.08828506553869243</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09014291848173402</v>
+        <v>0.09353823089749261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.112046398633777</v>
+        <v>0.1133018155839111</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3478739688317688</v>
+        <v>0.358903331861367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2678083655764347</v>
+        <v>0.2718471104001239</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2802584508355596</v>
+        <v>0.2830818903397556</v>
       </c>
     </row>
     <row r="16">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03800369183653384</v>
+        <v>0.03848740404764717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04715429148898197</v>
+        <v>0.05172889525138057</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3396461106441053</v>
+        <v>0.3852338404996444</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3162969309951275</v>
+        <v>0.315505261686176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2582615042049118</v>
+        <v>0.2649877984236105</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.135715377496483</v>
+        <v>0.1433708580671162</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1219252730575165</v>
+        <v>0.1292350899236636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1660139564734989</v>
+        <v>0.1654281556717256</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3942087359879779</v>
+        <v>0.4018321778810705</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3770708352032855</v>
+        <v>0.3901834215870135</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3449790237417302</v>
+        <v>0.3508470059631494</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1636283173522612</v>
+        <v>0.1698396670791164</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1559149212044396</v>
+        <v>0.1579708860963639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1809853737016471</v>
+        <v>0.1788509571368592</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3567183518292652</v>
+        <v>0.3644044204330351</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.300055791711595</v>
+        <v>0.2961750332778034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2992268841877109</v>
+        <v>0.2984075679572159</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.2475019736173465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2492482080794615</v>
+        <v>0.2492482080794614</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1424582054667988</v>
+        <v>0.1416034495139212</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1645303621884759</v>
+        <v>0.1576991932061066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1773739667003054</v>
+        <v>0.1783201244531365</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.371830353437344</v>
+        <v>0.3951575134716889</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3667899021089827</v>
+        <v>0.347826105762944</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3296839540580358</v>
+        <v>0.3412299594833554</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.2268069744818846</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.236932162798627</v>
+        <v>0.2369321627986269</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.199348407097332</v>
+        <v>0.2017716208488792</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1917650620447975</v>
+        <v>0.1890974838857842</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2065687098525571</v>
+        <v>0.2097188510331663</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2934600790624768</v>
+        <v>0.294844461021269</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2658410617582903</v>
+        <v>0.2647789505778648</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2657387790742806</v>
+        <v>0.2685905170100523</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7393</v>
+        <v>7716</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5104</v>
+        <v>5043</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14363</v>
+        <v>14409</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19604</v>
+        <v>19947</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12860</v>
+        <v>12485</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28519</v>
+        <v>29012</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10528</v>
+        <v>10322</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8427</v>
+        <v>7812</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21624</v>
+        <v>22518</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27223</v>
+        <v>27260</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19285</v>
+        <v>19796</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41925</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4234</v>
+        <v>4879</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5487</v>
+        <v>5385</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12753</v>
+        <v>12545</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13540</v>
+        <v>14222</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13855</v>
+        <v>13910</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26534</v>
+        <v>24881</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5171</v>
+        <v>5274</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4295</v>
+        <v>4457</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12032</v>
+        <v>12167</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20780</v>
+        <v>21439</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12762</v>
+        <v>12954</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30096</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="20">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1288</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5338</v>
+        <v>6055</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3669</v>
+        <v>3660</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7055</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4978</v>
+        <v>5259</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3017</v>
+        <v>3198</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10197</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14460</v>
+        <v>14740</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9330</v>
+        <v>9654</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21190</v>
+        <v>21551</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16528</v>
+        <v>17155</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18684</v>
+        <v>18930</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39969</v>
+        <v>39497</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36031</v>
+        <v>36807</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35957</v>
+        <v>35492</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>66081</v>
+        <v>65900</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8392</v>
+        <v>8342</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11928</v>
+        <v>11433</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23309</v>
+        <v>23433</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>21905</v>
+        <v>23279</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>26592</v>
+        <v>25217</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>43324</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>83709</v>
+        <v>84727</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>77204</v>
+        <v>76130</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>169906</v>
+        <v>172497</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>123228</v>
+        <v>123810</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>107027</v>
+        <v>106600</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>218574</v>
+        <v>220919</v>
       </c>
     </row>
     <row r="40">
